--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/71/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/71/FD_Curve.xlsx
@@ -499,10 +499,10 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>4.31667</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>4316.67</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>4.67636</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>4676.36</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>5.01119</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>5011.19</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>5.30468</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>5304.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>8.920579999999999</v>
+        <v>5.5132</v>
       </c>
       <c r="C10" t="n">
-        <v>8920.58</v>
+        <v>5513.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278893</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0216</v>
+        <v>5.71237</v>
       </c>
       <c r="C11" t="n">
-        <v>10021.6</v>
+        <v>5712.37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309783</v>
+        <v>0.309818</v>
       </c>
       <c r="B12" t="n">
-        <v>11.1847</v>
+        <v>5.88456</v>
       </c>
       <c r="C12" t="n">
-        <v>11184.7</v>
+        <v>5884.56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340708</v>
+        <v>0.340743</v>
       </c>
       <c r="B13" t="n">
-        <v>12.1456</v>
+        <v>6.03578</v>
       </c>
       <c r="C13" t="n">
-        <v>12145.6</v>
+        <v>6035.78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371633</v>
+        <v>0.371668</v>
       </c>
       <c r="B14" t="n">
-        <v>13.1145</v>
+        <v>6.18306</v>
       </c>
       <c r="C14" t="n">
-        <v>13114.5</v>
+        <v>6183.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402558</v>
+        <v>0.402593</v>
       </c>
       <c r="B15" t="n">
-        <v>13.8584</v>
+        <v>6.286770000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>13858.4</v>
+        <v>6286.77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433483</v>
+        <v>0.433518</v>
       </c>
       <c r="B16" t="n">
-        <v>14.7286</v>
+        <v>6.39717</v>
       </c>
       <c r="C16" t="n">
-        <v>14728.6</v>
+        <v>6397.17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464403</v>
+        <v>0.464443</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5285</v>
+        <v>6.47382</v>
       </c>
       <c r="C17" t="n">
-        <v>15528.5</v>
+        <v>6473.82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495328</v>
+        <v>0.495368</v>
       </c>
       <c r="B18" t="n">
-        <v>16.0951</v>
+        <v>6.54686</v>
       </c>
       <c r="C18" t="n">
-        <v>16095.1</v>
+        <v>6546.86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526253</v>
+        <v>0.526293</v>
       </c>
       <c r="B19" t="n">
-        <v>16.677</v>
+        <v>6.61124</v>
       </c>
       <c r="C19" t="n">
-        <v>16677</v>
+        <v>6611.24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557178</v>
+        <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>17.1021</v>
+        <v>6.65999</v>
       </c>
       <c r="C20" t="n">
-        <v>17102.1</v>
+        <v>6659.99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588103</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>17.4039</v>
+        <v>6.69502</v>
       </c>
       <c r="C21" t="n">
-        <v>17403.9</v>
+        <v>6695.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191449999999999</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>17.4402</v>
+        <v>6.719390000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>17440.2</v>
+        <v>6719.39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650322</v>
+        <v>0.650358</v>
       </c>
       <c r="B23" t="n">
-        <v>17.399</v>
+        <v>6.73203</v>
       </c>
       <c r="C23" t="n">
-        <v>17399</v>
+        <v>6732.03</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681495</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>17.3229</v>
+        <v>6.738420000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>17322.9</v>
+        <v>6738.42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126670000000001</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>17.2483</v>
+        <v>6.73679</v>
       </c>
       <c r="C25" t="n">
-        <v>17248.3</v>
+        <v>6736.79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438439999999999</v>
+        <v>0.74388</v>
       </c>
       <c r="B26" t="n">
-        <v>17.1529</v>
+        <v>6.72966</v>
       </c>
       <c r="C26" t="n">
-        <v>17152.9</v>
+        <v>6729.66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775017</v>
+        <v>0.775057</v>
       </c>
       <c r="B27" t="n">
-        <v>17.0582</v>
+        <v>6.71862</v>
       </c>
       <c r="C27" t="n">
-        <v>17058.2</v>
+        <v>6718.62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.80619</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>16.9448</v>
+        <v>6.70488</v>
       </c>
       <c r="C28" t="n">
-        <v>16944.8</v>
+        <v>6704.88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837367</v>
+        <v>0.837402</v>
       </c>
       <c r="B29" t="n">
-        <v>16.8338</v>
+        <v>6.68885</v>
       </c>
       <c r="C29" t="n">
-        <v>16833.8</v>
+        <v>6688.85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685389999999999</v>
+        <v>0.868579</v>
       </c>
       <c r="B30" t="n">
-        <v>16.703</v>
+        <v>6.67082</v>
       </c>
       <c r="C30" t="n">
-        <v>16703</v>
+        <v>6670.82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899712</v>
+        <v>0.899752</v>
       </c>
       <c r="B31" t="n">
-        <v>16.5727</v>
+        <v>6.651380000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>16572.7</v>
+        <v>6651.38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930889</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>16.4303</v>
+        <v>6.6306</v>
       </c>
       <c r="C32" t="n">
-        <v>16430.3</v>
+        <v>6630.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620610000000001</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>16.2783</v>
+        <v>6.60873</v>
       </c>
       <c r="C33" t="n">
-        <v>16278.3</v>
+        <v>6608.73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993238</v>
+        <v>0.993274</v>
       </c>
       <c r="B34" t="n">
-        <v>16.1227</v>
+        <v>6.585649999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>16122.7</v>
+        <v>6585.65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02426</v>
+        <v>1.02431</v>
       </c>
       <c r="B35" t="n">
-        <v>15.9505</v>
+        <v>6.5614</v>
       </c>
       <c r="C35" t="n">
-        <v>15950.5</v>
+        <v>6561.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05522</v>
+        <v>1.05528</v>
       </c>
       <c r="B36" t="n">
-        <v>15.7795</v>
+        <v>6.53573</v>
       </c>
       <c r="C36" t="n">
-        <v>15779.5</v>
+        <v>6535.73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08619</v>
+        <v>1.08625</v>
       </c>
       <c r="B37" t="n">
-        <v>15.5887</v>
+        <v>6.50893</v>
       </c>
       <c r="C37" t="n">
-        <v>15588.7</v>
+        <v>6508.93</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11716</v>
+        <v>1.11722</v>
       </c>
       <c r="B38" t="n">
-        <v>15.3965</v>
+        <v>6.48106</v>
       </c>
       <c r="C38" t="n">
-        <v>15396.5</v>
+        <v>6481.06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14813</v>
+        <v>1.14818</v>
       </c>
       <c r="B39" t="n">
-        <v>15.1916</v>
+        <v>6.45213</v>
       </c>
       <c r="C39" t="n">
-        <v>15191.6</v>
+        <v>6452.13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.1791</v>
+        <v>1.17915</v>
       </c>
       <c r="B40" t="n">
-        <v>14.9759</v>
+        <v>6.42167</v>
       </c>
       <c r="C40" t="n">
-        <v>14975.9</v>
+        <v>6421.67</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21006</v>
+        <v>1.21012</v>
       </c>
       <c r="B41" t="n">
-        <v>14.7563</v>
+        <v>6.38989</v>
       </c>
       <c r="C41" t="n">
-        <v>14756.3</v>
+        <v>6389.89</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24117</v>
+        <v>1.24109</v>
       </c>
       <c r="B42" t="n">
-        <v>12.4343</v>
+        <v>6.35655</v>
       </c>
       <c r="C42" t="n">
-        <v>12434.3</v>
+        <v>6356.55</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27235</v>
+        <v>1.27205</v>
       </c>
       <c r="B43" t="n">
-        <v>8.674479999999999</v>
+        <v>6.321800000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>8674.48</v>
+        <v>6321.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30307</v>
+        <v>1.30302</v>
       </c>
       <c r="B44" t="n">
-        <v>10.9563</v>
+        <v>6.28553</v>
       </c>
       <c r="C44" t="n">
-        <v>10956.3</v>
+        <v>6285.53</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33378</v>
+        <v>1.33399</v>
       </c>
       <c r="B45" t="n">
-        <v>13.3504</v>
+        <v>6.24712</v>
       </c>
       <c r="C45" t="n">
-        <v>13350.4</v>
+        <v>6247.12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.3645</v>
+        <v>1.36495</v>
       </c>
       <c r="B46" t="n">
-        <v>12.6257</v>
+        <v>6.20676</v>
       </c>
       <c r="C46" t="n">
-        <v>12625.7</v>
+        <v>6206.76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39597</v>
+        <v>1.39592</v>
       </c>
       <c r="B47" t="n">
-        <v>13.7141</v>
+        <v>6.164020000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>13714.1</v>
+        <v>6164.02</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.427</v>
+        <v>1.42689</v>
       </c>
       <c r="B48" t="n">
-        <v>14.4911</v>
+        <v>6.11856</v>
       </c>
       <c r="C48" t="n">
-        <v>14491.1</v>
+        <v>6118.56</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45772</v>
+        <v>1.45765</v>
       </c>
       <c r="B49" t="n">
-        <v>14.1377</v>
+        <v>6.07124</v>
       </c>
       <c r="C49" t="n">
-        <v>14137.7</v>
+        <v>6071.24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48897</v>
+        <v>1.48892</v>
       </c>
       <c r="B50" t="n">
-        <v>13.9067</v>
+        <v>6.02043</v>
       </c>
       <c r="C50" t="n">
-        <v>13906.7</v>
+        <v>6020.43</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51979</v>
+        <v>1.5197</v>
       </c>
       <c r="B51" t="n">
-        <v>13.5131</v>
+        <v>5.967300000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>13513.1</v>
+        <v>5967.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55094</v>
+        <v>1.55089</v>
       </c>
       <c r="B52" t="n">
-        <v>13.2827</v>
+        <v>5.91075</v>
       </c>
       <c r="C52" t="n">
-        <v>13282.7</v>
+        <v>5910.75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58209</v>
+        <v>1.58173</v>
       </c>
       <c r="B53" t="n">
-        <v>12.9181</v>
+        <v>5.85213</v>
       </c>
       <c r="C53" t="n">
-        <v>12918.1</v>
+        <v>5852.13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61315</v>
+        <v>1.61292</v>
       </c>
       <c r="B54" t="n">
-        <v>12.7834</v>
+        <v>5.78979</v>
       </c>
       <c r="C54" t="n">
-        <v>12783.4</v>
+        <v>5789.79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64415</v>
+        <v>1.64377</v>
       </c>
       <c r="B55" t="n">
-        <v>12.4598</v>
+        <v>5.72479</v>
       </c>
       <c r="C55" t="n">
-        <v>12459.8</v>
+        <v>5724.79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67514</v>
+        <v>1.67486</v>
       </c>
       <c r="B56" t="n">
-        <v>12.0905</v>
+        <v>5.6567</v>
       </c>
       <c r="C56" t="n">
-        <v>12090.5</v>
+        <v>5656.7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70615</v>
+        <v>1.70582</v>
       </c>
       <c r="B57" t="n">
-        <v>11.7254</v>
+        <v>5.586069999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>11725.4</v>
+        <v>5586.07</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73711</v>
+        <v>1.73687</v>
       </c>
       <c r="B58" t="n">
-        <v>11.4797</v>
+        <v>5.51279</v>
       </c>
       <c r="C58" t="n">
-        <v>11479.7</v>
+        <v>5512.79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76813</v>
+        <v>1.76784</v>
       </c>
       <c r="B59" t="n">
-        <v>11.3225</v>
+        <v>5.437180000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>11322.5</v>
+        <v>5437.18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79907</v>
+        <v>1.79882</v>
       </c>
       <c r="B60" t="n">
-        <v>11.009</v>
+        <v>5.35939</v>
       </c>
       <c r="C60" t="n">
-        <v>11009</v>
+        <v>5359.39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83009</v>
+        <v>1.82986</v>
       </c>
       <c r="B61" t="n">
-        <v>10.6967</v>
+        <v>5.27962</v>
       </c>
       <c r="C61" t="n">
-        <v>10696.7</v>
+        <v>5279.62</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86101</v>
+        <v>1.86087</v>
       </c>
       <c r="B62" t="n">
-        <v>10.3492</v>
+        <v>5.19812</v>
       </c>
       <c r="C62" t="n">
-        <v>10349.2</v>
+        <v>5198.12</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89225</v>
+        <v>1.89186</v>
       </c>
       <c r="B63" t="n">
-        <v>10.2971</v>
+        <v>5.115130000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>10297.1</v>
+        <v>5115.13</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92298</v>
+        <v>1.92286</v>
       </c>
       <c r="B64" t="n">
-        <v>10.0362</v>
+        <v>5.031149999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>10036.2</v>
+        <v>5031.15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95421</v>
+        <v>1.95379</v>
       </c>
       <c r="B65" t="n">
-        <v>9.78946</v>
+        <v>4.94667</v>
       </c>
       <c r="C65" t="n">
-        <v>9789.459999999999</v>
+        <v>4946.67</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98517</v>
+        <v>1.98491</v>
       </c>
       <c r="B66" t="n">
-        <v>9.556660000000001</v>
+        <v>4.86112</v>
       </c>
       <c r="C66" t="n">
-        <v>9556.66</v>
+        <v>4861.12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01604</v>
+        <v>2.01566</v>
       </c>
       <c r="B67" t="n">
-        <v>9.427820000000001</v>
+        <v>4.776380000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>9427.82</v>
+        <v>4776.38</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04741</v>
+        <v>2.04713</v>
       </c>
       <c r="B68" t="n">
-        <v>9.23617</v>
+        <v>4.69017</v>
       </c>
       <c r="C68" t="n">
-        <v>9236.17</v>
+        <v>4690.17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07824</v>
+        <v>2.07761</v>
       </c>
       <c r="B69" t="n">
-        <v>9.04655</v>
+        <v>4.6059</v>
       </c>
       <c r="C69" t="n">
-        <v>9046.549999999999</v>
+        <v>4605.9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10937</v>
+        <v>2.10911</v>
       </c>
       <c r="B70" t="n">
-        <v>8.906940000000001</v>
+        <v>4.521020000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>8906.940000000001</v>
+        <v>4521.02</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14043</v>
+        <v>2.13984</v>
       </c>
       <c r="B71" t="n">
-        <v>8.78973</v>
+        <v>4.43851</v>
       </c>
       <c r="C71" t="n">
-        <v>8789.73</v>
+        <v>4438.51</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17147</v>
+        <v>2.17096</v>
       </c>
       <c r="B72" t="n">
-        <v>8.625879999999999</v>
+        <v>4.35758</v>
       </c>
       <c r="C72" t="n">
-        <v>8625.879999999999</v>
+        <v>4357.58</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20224</v>
+        <v>2.20195</v>
       </c>
       <c r="B73" t="n">
-        <v>8.469329999999999</v>
+        <v>4.27746</v>
       </c>
       <c r="C73" t="n">
-        <v>8469.33</v>
+        <v>4277.46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23341</v>
+        <v>2.23294</v>
       </c>
       <c r="B74" t="n">
-        <v>8.412280000000001</v>
+        <v>4.20028</v>
       </c>
       <c r="C74" t="n">
-        <v>8412.280000000001</v>
+        <v>4200.28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26398</v>
+        <v>2.2638</v>
       </c>
       <c r="B75" t="n">
-        <v>8.32105</v>
+        <v>4.1243</v>
       </c>
       <c r="C75" t="n">
-        <v>8321.049999999999</v>
+        <v>4124.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29669</v>
+        <v>2.29509</v>
       </c>
       <c r="B76" t="n">
-        <v>8.282309999999999</v>
+        <v>4.05014</v>
       </c>
       <c r="C76" t="n">
-        <v>8282.309999999999</v>
+        <v>4050.14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32783</v>
+        <v>2.3257</v>
       </c>
       <c r="B77" t="n">
-        <v>8.259549999999999</v>
+        <v>3.97964</v>
       </c>
       <c r="C77" t="n">
-        <v>8259.549999999999</v>
+        <v>3979.64</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35856</v>
+        <v>2.35679</v>
       </c>
       <c r="B78" t="n">
-        <v>8.27106</v>
+        <v>3.9099</v>
       </c>
       <c r="C78" t="n">
-        <v>8271.059999999999</v>
+        <v>3909.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38929</v>
+        <v>2.38841</v>
       </c>
       <c r="B79" t="n">
-        <v>8.227600000000001</v>
+        <v>3.84257</v>
       </c>
       <c r="C79" t="n">
-        <v>8227.6</v>
+        <v>3842.57</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42001</v>
+        <v>2.41862</v>
       </c>
       <c r="B80" t="n">
-        <v>8.19064</v>
+        <v>3.77891</v>
       </c>
       <c r="C80" t="n">
-        <v>8190.64</v>
+        <v>3778.91</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45073</v>
+        <v>2.45034</v>
       </c>
       <c r="B81" t="n">
-        <v>8.136939999999999</v>
+        <v>3.71582</v>
       </c>
       <c r="C81" t="n">
-        <v>8136.94</v>
+        <v>3715.82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48059</v>
+        <v>2.48074</v>
       </c>
       <c r="B82" t="n">
-        <v>8.107470000000001</v>
+        <v>3.65853</v>
       </c>
       <c r="C82" t="n">
-        <v>8107.47</v>
+        <v>3658.53</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50888</v>
+        <v>2.51114</v>
       </c>
       <c r="B83" t="n">
-        <v>8.07283</v>
+        <v>3.60288</v>
       </c>
       <c r="C83" t="n">
-        <v>8072.83</v>
+        <v>3602.88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53704</v>
+        <v>2.54154</v>
       </c>
       <c r="B84" t="n">
-        <v>8.04683</v>
+        <v>3.55021</v>
       </c>
       <c r="C84" t="n">
-        <v>8046.83</v>
+        <v>3550.21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.5652</v>
+        <v>2.57151</v>
       </c>
       <c r="B85" t="n">
-        <v>7.977399999999999</v>
+        <v>3.50029</v>
       </c>
       <c r="C85" t="n">
-        <v>7977.4</v>
+        <v>3500.29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.59447</v>
+        <v>2.60092</v>
       </c>
       <c r="B86" t="n">
-        <v>7.96354</v>
+        <v>3.45215</v>
       </c>
       <c r="C86" t="n">
-        <v>7963.54</v>
+        <v>3452.15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.62842</v>
+        <v>2.63383</v>
       </c>
       <c r="B87" t="n">
-        <v>7.887300000000001</v>
+        <v>3.40152</v>
       </c>
       <c r="C87" t="n">
-        <v>7887.3</v>
+        <v>3401.52</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66361</v>
+        <v>2.6666</v>
       </c>
       <c r="B88" t="n">
-        <v>7.85318</v>
+        <v>3.3548</v>
       </c>
       <c r="C88" t="n">
-        <v>7853.18</v>
+        <v>3354.8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.6977</v>
+        <v>2.69769</v>
       </c>
       <c r="B89" t="n">
-        <v>7.78547</v>
+        <v>3.30967</v>
       </c>
       <c r="C89" t="n">
-        <v>7785.47</v>
+        <v>3309.67</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72974</v>
+        <v>2.72877</v>
       </c>
       <c r="B90" t="n">
-        <v>7.73286</v>
+        <v>3.26733</v>
       </c>
       <c r="C90" t="n">
-        <v>7732.86</v>
+        <v>3267.33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76174</v>
+        <v>2.75986</v>
       </c>
       <c r="B91" t="n">
-        <v>7.6815</v>
+        <v>3.227</v>
       </c>
       <c r="C91" t="n">
-        <v>7681.5</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79374</v>
+        <v>2.79056</v>
       </c>
       <c r="B92" t="n">
-        <v>7.637729999999999</v>
+        <v>3.19752</v>
       </c>
       <c r="C92" t="n">
-        <v>7637.73</v>
+        <v>3197.52</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82574</v>
+        <v>2.81929</v>
       </c>
       <c r="B93" t="n">
-        <v>7.580850000000001</v>
+        <v>3.18935</v>
       </c>
       <c r="C93" t="n">
-        <v>7580.85</v>
+        <v>3189.35</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85774</v>
+        <v>2.85257</v>
       </c>
       <c r="B94" t="n">
-        <v>7.520810000000001</v>
+        <v>3.18042</v>
       </c>
       <c r="C94" t="n">
-        <v>7520.81</v>
+        <v>3180.42</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88974</v>
+        <v>2.88585</v>
       </c>
       <c r="B95" t="n">
-        <v>7.46737</v>
+        <v>3.1706</v>
       </c>
       <c r="C95" t="n">
-        <v>7467.37</v>
+        <v>3170.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92174</v>
+        <v>2.91913</v>
       </c>
       <c r="B96" t="n">
-        <v>7.42307</v>
+        <v>3.16241</v>
       </c>
       <c r="C96" t="n">
-        <v>7423.07</v>
+        <v>3162.41</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95293</v>
+        <v>2.95179</v>
       </c>
       <c r="B97" t="n">
-        <v>7.394229999999999</v>
+        <v>3.14841</v>
       </c>
       <c r="C97" t="n">
-        <v>7394.23</v>
+        <v>3148.41</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98182</v>
+        <v>2.98252</v>
       </c>
       <c r="B98" t="n">
-        <v>7.328189999999999</v>
+        <v>3.13218</v>
       </c>
       <c r="C98" t="n">
-        <v>7328.19</v>
+        <v>3132.18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01062</v>
+        <v>3.01324</v>
       </c>
       <c r="B99" t="n">
-        <v>7.30498</v>
+        <v>3.11864</v>
       </c>
       <c r="C99" t="n">
-        <v>7304.98</v>
+        <v>3118.64</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03942</v>
+        <v>3.04396</v>
       </c>
       <c r="B100" t="n">
-        <v>7.241140000000001</v>
+        <v>3.10154</v>
       </c>
       <c r="C100" t="n">
-        <v>7241.14</v>
+        <v>3101.54</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06822</v>
+        <v>3.07468</v>
       </c>
       <c r="B101" t="n">
-        <v>7.20137</v>
+        <v>3.08579</v>
       </c>
       <c r="C101" t="n">
-        <v>7201.37</v>
+        <v>3085.79</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09702</v>
+        <v>3.10539</v>
       </c>
       <c r="B102" t="n">
-        <v>7.15707</v>
+        <v>3.06597</v>
       </c>
       <c r="C102" t="n">
-        <v>7157.07</v>
+        <v>3065.97</v>
       </c>
     </row>
   </sheetData>
